--- a/Homework/Blackjack/RL_HandCalcs.xlsx
+++ b/Homework/Blackjack/RL_HandCalcs.xlsx
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +98,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -233,10 +245,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,8 +297,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:T51"/>
+  <dimension ref="C2:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,15 +619,15 @@
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
@@ -649,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
@@ -686,15 +703,15 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="24">
         <v>0.8</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="27">
         <v>-1</v>
       </c>
       <c r="G5" s="4">
@@ -718,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="7">
-        <f>J5*(K5+$D$18*L5)</f>
+        <f t="shared" ref="M5:M16" si="0">J5*(K5+$D$18*L5)</f>
         <v>8</v>
       </c>
       <c r="N5" s="7">
@@ -736,15 +753,15 @@
         <f>O5</f>
         <v>7</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="25">
         <v>0.2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="28">
         <v>1</v>
       </c>
       <c r="G6" s="13"/>
@@ -757,14 +774,14 @@
         <v>0.2</v>
       </c>
       <c r="K6" s="15">
-        <f t="shared" ref="K6:K16" si="0">IFERROR(VLOOKUP(I6,$C$14:$D$15,2,FALSE), $D$16)</f>
+        <f t="shared" ref="K6:K16" si="1">IFERROR(VLOOKUP(I6,$C$14:$D$15,2,FALSE), $D$16)</f>
         <v>-5</v>
       </c>
       <c r="L6" s="15">
         <v>0</v>
       </c>
       <c r="M6" s="15">
-        <f>J6*(K6+$D$18*L6)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="N6" s="15"/>
@@ -776,11 +793,11 @@
         <f>O9</f>
         <v>-5</v>
       </c>
-      <c r="T6">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" s="13"/>
       <c r="H7" s="14" t="s">
         <v>3</v>
@@ -793,14 +810,14 @@
         <v>0.7</v>
       </c>
       <c r="K7" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <f>J7*(K7+$D$18*L7)</f>
         <v>7</v>
       </c>
       <c r="N7" s="15">
@@ -815,11 +832,11 @@
         <f>O13</f>
         <v>11.5</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>26.5</v>
       </c>
     </row>
-    <row r="8" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="23" t="s">
         <v>3</v>
       </c>
@@ -834,14 +851,14 @@
         <v>0.3</v>
       </c>
       <c r="K8" s="11">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <f>J8*(K8+$D$18*L8)</f>
         <v>-1.5</v>
       </c>
       <c r="N8" s="11"/>
@@ -852,11 +869,11 @@
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="24" t="s">
         <v>0</v>
       </c>
@@ -877,14 +894,14 @@
         <v>0.8</v>
       </c>
       <c r="K9" s="7">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <f>J9*(K9+$D$18*L9)</f>
         <v>-4</v>
       </c>
       <c r="N9" s="7">
@@ -896,11 +913,11 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="24">
         <v>0.7</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="27">
         <v>-1</v>
       </c>
       <c r="G10" s="13"/>
@@ -913,14 +930,14 @@
         <v>0.2</v>
       </c>
       <c r="K10" s="15">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="L10" s="15">
-        <v>0</v>
-      </c>
-      <c r="M10" s="15">
-        <f>J10*(K10+$D$18*L10)</f>
         <v>-1</v>
       </c>
       <c r="N10" s="15"/>
@@ -932,11 +949,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="25">
         <v>0.3</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="28">
         <v>1</v>
       </c>
       <c r="G11" s="13"/>
@@ -951,14 +968,14 @@
         <v>0.7</v>
       </c>
       <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
-      <c r="M11" s="15">
-        <f>J11*(K11+$D$18*L11)</f>
         <v>-3.5</v>
       </c>
       <c r="N11" s="15">
@@ -972,11 +989,11 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
       <c r="I12" s="18">
@@ -987,14 +1004,14 @@
         <v>0.3</v>
       </c>
       <c r="K12" s="11">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <f>J12*(K12+$D$18*L12)</f>
         <v>-1.5</v>
       </c>
       <c r="N12" s="11"/>
@@ -1006,11 +1023,11 @@
         <f>O22</f>
         <v>6</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="23" t="s">
         <v>4</v>
       </c>
@@ -1028,14 +1045,14 @@
         <v>0.8</v>
       </c>
       <c r="K13" s="7">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <f>J13*(K13+$D$18*L13)</f>
         <v>-4</v>
       </c>
       <c r="N13" s="7">
@@ -1053,15 +1070,15 @@
         <f>O26</f>
         <v>3.3499999999999996</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>13.45</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="24">
         <v>-2</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="27">
         <v>10</v>
       </c>
       <c r="G14" s="13"/>
@@ -1073,14 +1090,14 @@
         <v>0.2</v>
       </c>
       <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
-      <c r="M14" s="15">
-        <f>J14*(K14+$D$18*L14)</f>
         <v>10</v>
       </c>
       <c r="N14" s="15"/>
@@ -1092,15 +1109,15 @@
         <f>O30</f>
         <v>8</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="24">
         <v>2</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="27">
         <v>50</v>
       </c>
       <c r="G15" s="13"/>
@@ -1114,14 +1131,14 @@
         <v>0.7</v>
       </c>
       <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
         <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="15">
-        <f>J15*(K15+$D$18*L15)</f>
         <v>-3.5</v>
       </c>
       <c r="N15" s="15">
@@ -1135,15 +1152,15 @@
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="28">
         <v>-5</v>
       </c>
       <c r="G16" s="9"/>
@@ -1155,14 +1172,14 @@
         <v>0.3</v>
       </c>
       <c r="K16" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <f>J16*(K16+$D$18*L16)</f>
         <v>15</v>
       </c>
       <c r="N16" s="11"/>
@@ -1198,7 +1215,7 @@
       <c r="C18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1285,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="7">
-        <f>J22*(K22+$D$18*L22)</f>
+        <f t="shared" ref="M22:M33" si="2">J22*(K22+$D$18*L22)</f>
         <v>8</v>
       </c>
       <c r="N22" s="7">
@@ -1308,15 +1325,15 @@
         <v>0.2</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" ref="K23:K33" si="1">IFERROR(VLOOKUP(I23,$C$14:$D$15,2,FALSE), $D$16)</f>
+        <f t="shared" ref="K23:K33" si="3">IFERROR(VLOOKUP(I23,$C$14:$D$15,2,FALSE), $D$16)</f>
         <v>-5</v>
       </c>
       <c r="L23" s="15">
-        <f t="shared" ref="L23:L33" si="2">VLOOKUP(I23,$R$4:$S$8, 2,FALSE)</f>
+        <f t="shared" ref="L23:L33" si="4">VLOOKUP(I23,$R$4:$S$8, 2,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="M23" s="15">
-        <f>J23*(K23+$D$18*L23)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="N23" s="15"/>
@@ -1335,15 +1352,15 @@
         <v>0.7</v>
       </c>
       <c r="K24" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L24" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="15">
-        <f>J24*(K24+$D$18*L24)</f>
         <v>7</v>
       </c>
       <c r="N24" s="15">
@@ -1363,15 +1380,15 @@
         <v>0.3</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="L25" s="11">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="M25" s="11">
         <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="M25" s="11">
-        <f>J25*(K25+$D$18*L25)</f>
         <v>-3</v>
       </c>
       <c r="N25" s="11"/>
@@ -1392,15 +1409,15 @@
         <v>0.8</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="L26" s="7">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M26" s="7">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M26" s="7">
-        <f>J26*(K26+$D$18*L26)</f>
         <v>1.6</v>
       </c>
       <c r="N26" s="7">
@@ -1423,15 +1440,15 @@
         <v>0.2</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="L27" s="15">
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+      <c r="M27" s="15">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="M27" s="15">
-        <f>J27*(K27+$D$18*L27)</f>
         <v>1.3</v>
       </c>
       <c r="N27" s="15"/>
@@ -1450,15 +1467,15 @@
         <v>0.7</v>
       </c>
       <c r="K28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="L28" s="15">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M28" s="15">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M28" s="15">
-        <f>J28*(K28+$D$18*L28)</f>
         <v>1.4</v>
       </c>
       <c r="N28" s="15">
@@ -1478,15 +1495,15 @@
         <v>0.3</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="L29" s="11">
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+      <c r="M29" s="11">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="M29" s="11">
-        <f>J29*(K29+$D$18*L29)</f>
         <v>1.95</v>
       </c>
       <c r="N29" s="11"/>
@@ -1506,15 +1523,15 @@
         <v>0.8</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="L30" s="7">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="M30" s="7">
         <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="M30" s="7">
-        <f>J30*(K30+$D$18*L30)</f>
         <v>-8</v>
       </c>
       <c r="N30" s="7">
@@ -1536,15 +1553,15 @@
         <v>0.2</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="L31" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="15">
-        <f>J31*(K31+$D$18*L31)</f>
         <v>10</v>
       </c>
       <c r="N31" s="15"/>
@@ -1562,15 +1579,15 @@
         <v>0.7</v>
       </c>
       <c r="K32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="L32" s="15">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="M32" s="15">
         <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="M32" s="15">
-        <f>J32*(K32+$D$18*L32)</f>
         <v>-7</v>
       </c>
       <c r="N32" s="15">
@@ -1589,15 +1606,15 @@
         <v>0.3</v>
       </c>
       <c r="K33" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="L33" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="11">
-        <f>J33*(K33+$D$18*L33)</f>
         <v>15</v>
       </c>
       <c r="N33" s="11"/>
@@ -1712,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="7">
-        <f>J39*(K39+$D$18*L39)</f>
+        <f t="shared" ref="M39:M50" si="5">J39*(K39+$D$18*L39)</f>
         <v>8</v>
       </c>
       <c r="N39" s="7">
@@ -1735,15 +1752,15 @@
         <v>0.2</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" ref="K40:K50" si="3">IFERROR(VLOOKUP(I40,$C$14:$D$15,2,FALSE), $D$16)</f>
+        <f t="shared" ref="K40:K50" si="6">IFERROR(VLOOKUP(I40,$C$14:$D$15,2,FALSE), $D$16)</f>
         <v>-5</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" ref="L40:L50" si="4">VLOOKUP(I40,$R$11:$S$15, 2,FALSE)</f>
+        <f t="shared" ref="L40:L50" si="7">VLOOKUP(I40,$R$11:$S$15, 2,FALSE)</f>
         <v>3.3499999999999996</v>
       </c>
       <c r="M40" s="15">
-        <f>J40*(K40+$D$18*L40)</f>
+        <f t="shared" si="5"/>
         <v>-0.33000000000000007</v>
       </c>
       <c r="N40" s="15"/>
@@ -1762,15 +1779,15 @@
         <v>0.7</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M41" s="15">
-        <f>J41*(K41+$D$18*L41)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N41" s="15">
@@ -1790,15 +1807,15 @@
         <v>0.3</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.3499999999999996</v>
       </c>
       <c r="M42" s="11">
-        <f>J42*(K42+$D$18*L42)</f>
+        <f t="shared" si="5"/>
         <v>-0.49500000000000011</v>
       </c>
       <c r="N42" s="11"/>
@@ -1819,15 +1836,15 @@
         <v>0.8</v>
       </c>
       <c r="K43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="L43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="M43" s="7">
-        <f>J43*(K43+$D$18*L43)</f>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="N43" s="7">
@@ -1850,15 +1867,15 @@
         <v>0.2</v>
       </c>
       <c r="K44" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="M44" s="15">
-        <f>J44*(K44+$D$18*L44)</f>
+        <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="N44" s="15"/>
@@ -1877,15 +1894,15 @@
         <v>0.7</v>
       </c>
       <c r="K45" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="M45" s="15">
-        <f>J45*(K45+$D$18*L45)</f>
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
       <c r="N45" s="15">
@@ -1905,15 +1922,15 @@
         <v>0.3</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="M46" s="11">
-        <f>J46*(K46+$D$18*L46)</f>
+        <f t="shared" si="5"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="N46" s="11"/>
@@ -1933,7 +1950,7 @@
         <v>0.8</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="L47" s="7">
@@ -1941,7 +1958,7 @@
         <v>3.3499999999999996</v>
       </c>
       <c r="M47" s="7">
-        <f>J47*(K47+$D$18*L47)</f>
+        <f t="shared" si="5"/>
         <v>-1.3200000000000003</v>
       </c>
       <c r="N47" s="7">
@@ -1963,15 +1980,15 @@
         <v>0.2</v>
       </c>
       <c r="K48" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M48" s="15">
-        <f>J48*(K48+$D$18*L48)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="N48" s="15"/>
@@ -1989,15 +2006,15 @@
         <v>0.7</v>
       </c>
       <c r="K49" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="L49" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.3499999999999996</v>
       </c>
       <c r="M49" s="15">
-        <f>J49*(K49+$D$18*L49)</f>
+        <f t="shared" si="5"/>
         <v>-1.1550000000000002</v>
       </c>
       <c r="N49" s="15">
@@ -2016,15 +2033,15 @@
         <v>0.3</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <f>J50*(K50+$D$18*L50)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="N50" s="11"/>
